--- a/MyTraining/src/day2/Operators.xlsx
+++ b/MyTraining/src/day2/Operators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\MyTrainingTeamWorkSpace\MyTraining\src\day2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training\MyGit\MyTraining\src\day2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBB9AEC4-F41F-464D-8EA3-A36DFAC7AE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406AA178-E65D-4EF6-9748-313DF48E6743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{80EEA046-075C-48C9-B159-7057568FB664}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E86D7A04-CE66-435A-9227-58E0C3B87696}</author>
+  </authors>
+  <commentList>
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{E86D7A04-CE66-435A-9227-58E0C3B87696}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not Used in real time projects but good to know</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Order</t>
   </si>
@@ -127,13 +146,55 @@
   </si>
   <si>
     <t>output</t>
+  </si>
+  <si>
+    <t>Short Circuit Operator</t>
+  </si>
+  <si>
+    <t>&lt;&lt; &gt;&gt; &gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>relational comparison and type compare</t>
+  </si>
+  <si>
+    <t>&lt;  &gt;  &lt;=  &gt;=  instanceof</t>
+  </si>
+  <si>
+    <t>`== !=</t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Bit / Logical AND</t>
+  </si>
+  <si>
+    <t>Bit / Logical exclusive OR</t>
+  </si>
+  <si>
+    <t>Bit / Logical inclusive OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| </t>
+  </si>
+  <si>
+    <t>left , right and signed right shift operator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +202,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,16 +246,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -200,6 +288,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="discovernaren@outlook.com" id="{BFBD0FFA-76FA-4E21-8638-D6357A74C936}" userId="e97a8d0187cc9924" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,208 +591,239 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E14" dT="2022-09-27T16:35:49.95" personId="{BFBD0FFA-76FA-4E21-8638-D6357A74C936}" id="{E86D7A04-CE66-435A-9227-58E0C3B87696}">
+    <text>Not Used in real time projects but good to know</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C852DC0-B2E7-4004-AE92-A5161A9B1F85}">
-  <dimension ref="D5:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C852DC0-B2E7-4004-AE92-A5161A9B1F85}">
+  <dimension ref="D5:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="2">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="2">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="2">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
         <v>4</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="2">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="2">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
         <v>6</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="2">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
         <v>7</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="2">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="E13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="2">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="E14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="2">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
         <v>10</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="2">
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
         <v>11</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>13</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D19" s="2">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H15:H16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -860,4 +985,228 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E610CA-DCE6-41A2-8BEC-2F9A8DC22D26}">
+  <dimension ref="C3:L21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>